--- a/コンフリクトテスト.xlsx
+++ b/コンフリクトテスト.xlsx
@@ -11,7 +11,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>Mainブランチでの変更</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -281,6 +285,11 @@
         <v>3.0</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/コンフリクトテスト.xlsx
+++ b/コンフリクトテスト.xlsx
@@ -11,7 +11,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>トピックブランチでの変更</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -281,6 +285,11 @@
         <v>3.0</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
